--- a/data/LifeExpectancy redesign.xlsx
+++ b/data/LifeExpectancy redesign.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NID\Info Viz 2 - DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NID\Info Viz 2 - DATA\redesign\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="589">
   <si>
     <t>Country Code</t>
   </si>
@@ -1791,6 +1791,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>IS valid</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1835,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3600,9 +3607,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:BH264" totalsRowShown="0">
-  <autoFilter ref="A1:BH264"/>
-  <tableColumns count="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:BI264" totalsRowShown="0">
+  <autoFilter ref="A1:BI264">
+    <filterColumn colId="60">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="61">
     <tableColumn id="1" name="Country Name"/>
     <tableColumn id="2" name="Country Code"/>
     <tableColumn id="3" name="Indicator Name"/>
@@ -3665,6 +3678,9 @@
     <tableColumn id="58" name="2013"/>
     <tableColumn id="59" name="2014"/>
     <tableColumn id="60" name="2015"/>
+    <tableColumn id="61" name="IS valid" dataDxfId="0">
+      <calculatedColumnFormula>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3967,10 +3983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH264"/>
+  <dimension ref="A1:BI264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3981,7 +3997,7 @@
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>322</v>
       </c>
@@ -4162,8 +4178,11 @@
       <c r="BH1" t="s">
         <v>57</v>
       </c>
+      <c r="BI1" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>323</v>
       </c>
@@ -4345,8 +4364,12 @@
       <c r="BH2">
         <v>75.573585365853674</v>
       </c>
+      <c r="BI2" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -4528,8 +4551,12 @@
       <c r="BH3">
         <v>60.717170731707327</v>
       </c>
+      <c r="BI3" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>325</v>
       </c>
@@ -4711,8 +4738,12 @@
       <c r="BH4">
         <v>52.666097560975608</v>
       </c>
+      <c r="BI4" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>326</v>
       </c>
@@ -4894,8 +4925,12 @@
       <c r="BH5">
         <v>78.014463414634164</v>
       </c>
+      <c r="BI5" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>327</v>
       </c>
@@ -4909,8 +4944,12 @@
         <f>IF(MATCH(B6,'[1]Metadata - Countries'!A6),'[1]Metadata - Countries'!C6,"NA")</f>
         <v>High income</v>
       </c>
+      <c r="BI6" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>328</v>
       </c>
@@ -5091,8 +5130,12 @@
       <c r="BH7">
         <v>70.714065111499707</v>
       </c>
+      <c r="BI7" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>329</v>
       </c>
@@ -5274,8 +5317,12 @@
       <c r="BH8">
         <v>77.541243902439035</v>
       </c>
+      <c r="BI8" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>330</v>
       </c>
@@ -5457,8 +5504,12 @@
       <c r="BH9">
         <v>76.334219512195133</v>
       </c>
+      <c r="BI9" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>331</v>
       </c>
@@ -5640,8 +5691,12 @@
       <c r="BH10">
         <v>74.797121951219509</v>
       </c>
+      <c r="BI10" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -5655,8 +5710,12 @@
         <f>IF(MATCH(B11,'[1]Metadata - Countries'!A11),'[1]Metadata - Countries'!C11,"NA")</f>
         <v>Upper middle income</v>
       </c>
+      <c r="BI11" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>333</v>
       </c>
@@ -5838,8 +5897,12 @@
       <c r="BH12">
         <v>76.100219512195125</v>
       </c>
+      <c r="BI12" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>334</v>
       </c>
@@ -6021,8 +6084,12 @@
       <c r="BH13">
         <v>82.451219512195138</v>
       </c>
+      <c r="BI13" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>335</v>
       </c>
@@ -6204,8 +6271,12 @@
       <c r="BH14">
         <v>81.843902439024404</v>
       </c>
+      <c r="BI14" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -6387,8 +6458,12 @@
       <c r="BH15">
         <v>70.848780487804888</v>
       </c>
+      <c r="BI15" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>337</v>
       </c>
@@ -6570,8 +6645,12 @@
       <c r="BH16">
         <v>57.107048780487801</v>
       </c>
+      <c r="BI16" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>338</v>
       </c>
@@ -6753,8 +6832,12 @@
       <c r="BH17">
         <v>81.287804878048775</v>
       </c>
+      <c r="BI17" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>339</v>
       </c>
@@ -6936,8 +7019,12 @@
       <c r="BH18">
         <v>59.72070731707317</v>
       </c>
+      <c r="BI18" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>340</v>
       </c>
@@ -7119,8 +7206,12 @@
       <c r="BH19">
         <v>58.931292682926838</v>
       </c>
+      <c r="BI19" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>341</v>
       </c>
@@ -7302,8 +7393,12 @@
       <c r="BH20">
         <v>72.001195121951227</v>
       </c>
+      <c r="BI20" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -7485,8 +7580,12 @@
       <c r="BH21">
         <v>74.465853658536588</v>
       </c>
+      <c r="BI21" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>343</v>
       </c>
@@ -7668,8 +7767,12 @@
       <c r="BH22">
         <v>76.819097560975621</v>
       </c>
+      <c r="BI22" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>344</v>
       </c>
@@ -7851,8 +7954,12 @@
       <c r="BH23">
         <v>75.396829268292691</v>
       </c>
+      <c r="BI23" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>345</v>
       </c>
@@ -8034,8 +8141,12 @@
       <c r="BH24">
         <v>76.588585365853675</v>
       </c>
+      <c r="BI24" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>346</v>
       </c>
@@ -8217,8 +8328,12 @@
       <c r="BH25">
         <v>73.624390243902454</v>
       </c>
+      <c r="BI25" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>347</v>
       </c>
@@ -8400,8 +8515,12 @@
       <c r="BH26">
         <v>70.192365853658544</v>
       </c>
+      <c r="BI26" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>348</v>
       </c>
@@ -8475,8 +8594,12 @@
       <c r="BH27">
         <v>81.012195121951223</v>
       </c>
+      <c r="BI27" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>349</v>
       </c>
@@ -8658,8 +8781,12 @@
       <c r="BH28">
         <v>68.739609756097565</v>
       </c>
+      <c r="BI28" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>350</v>
       </c>
@@ -8841,8 +8968,12 @@
       <c r="BH29">
         <v>74.675878048780504</v>
       </c>
+      <c r="BI29" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>351</v>
       </c>
@@ -9024,8 +9155,12 @@
       <c r="BH30">
         <v>75.658439024390262</v>
       </c>
+      <c r="BI30" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>352</v>
       </c>
@@ -9207,8 +9342,12 @@
       <c r="BH31">
         <v>79.040829268292697</v>
       </c>
+      <c r="BI31" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>353</v>
       </c>
@@ -9390,8 +9529,12 @@
       <c r="BH32">
         <v>69.832853658536592</v>
       </c>
+      <c r="BI32" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>354</v>
       </c>
@@ -9573,8 +9716,12 @@
       <c r="BH33">
         <v>64.487414634146361</v>
       </c>
+      <c r="BI33" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>355</v>
       </c>
@@ -9756,8 +9903,12 @@
       <c r="BH34">
         <v>51.419121951219516</v>
       </c>
+      <c r="BI34" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>356</v>
       </c>
@@ -9939,8 +10090,12 @@
       <c r="BH35">
         <v>82.137634146341469</v>
       </c>
+      <c r="BI35" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>357</v>
       </c>
@@ -10121,8 +10276,12 @@
       <c r="BH36">
         <v>77.026907103493713</v>
       </c>
+      <c r="BI36" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>358</v>
       </c>
@@ -10304,8 +10463,12 @@
       <c r="BH37">
         <v>83.197560975609761</v>
       </c>
+      <c r="BI37" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>359</v>
       </c>
@@ -10487,8 +10650,12 @@
       <c r="BH38">
         <v>80.751682926829275</v>
       </c>
+      <c r="BI38" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>360</v>
       </c>
@@ -10670,8 +10837,12 @@
       <c r="BH39">
         <v>81.78756097560975</v>
       </c>
+      <c r="BI39" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>361</v>
       </c>
@@ -10853,8 +11024,12 @@
       <c r="BH40">
         <v>75.986341463414632</v>
       </c>
+      <c r="BI40" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>362</v>
       </c>
@@ -11036,8 +11211,12 @@
       <c r="BH41">
         <v>51.919756097560985</v>
       </c>
+      <c r="BI41" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>363</v>
       </c>
@@ -11219,8 +11398,12 @@
       <c r="BH42">
         <v>55.934390243902449</v>
       </c>
+      <c r="BI42" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>364</v>
       </c>
@@ -11402,8 +11585,12 @@
       <c r="BH43">
         <v>59.02390243902439</v>
       </c>
+      <c r="BI43" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>365</v>
       </c>
@@ -11585,8 +11772,12 @@
       <c r="BH44">
         <v>62.867658536585374</v>
       </c>
+      <c r="BI44" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>366</v>
       </c>
@@ -11768,8 +11959,12 @@
       <c r="BH45">
         <v>74.18202439024391</v>
       </c>
+      <c r="BI45" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>367</v>
       </c>
@@ -11951,8 +12146,12 @@
       <c r="BH46">
         <v>63.55402439024391</v>
       </c>
+      <c r="BI46" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>368</v>
       </c>
@@ -12134,8 +12333,12 @@
       <c r="BH47">
         <v>73.355634146341473</v>
       </c>
+      <c r="BI47" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>369</v>
       </c>
@@ -12317,8 +12520,12 @@
       <c r="BH48">
         <v>79.586463414634139</v>
       </c>
+      <c r="BI48" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>370</v>
       </c>
@@ -12499,8 +12706,12 @@
       <c r="BH49">
         <v>73.030190575136359</v>
       </c>
+      <c r="BI49" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>371</v>
       </c>
@@ -12682,8 +12893,12 @@
       <c r="BH50">
         <v>79.546414634146359</v>
       </c>
+      <c r="BI50" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>372</v>
       </c>
@@ -12715,8 +12930,12 @@
       <c r="BG51">
         <v>77.824390243902457</v>
       </c>
+      <c r="BI51" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>373</v>
       </c>
@@ -12730,8 +12949,12 @@
         <f>IF(MATCH(B52,'[1]Metadata - Countries'!A52),'[1]Metadata - Countries'!C52,"NA")</f>
         <v>High income</v>
       </c>
+      <c r="BI52" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>374</v>
       </c>
@@ -12913,8 +13136,12 @@
       <c r="BH53">
         <v>80.30709756097562</v>
       </c>
+      <c r="BI53" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>375</v>
       </c>
@@ -13096,8 +13323,12 @@
       <c r="BH54">
         <v>79.473170731707327</v>
       </c>
+      <c r="BI54" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>376</v>
       </c>
@@ -13279,8 +13510,12 @@
       <c r="BH55">
         <v>81.090243902439042</v>
       </c>
+      <c r="BI55" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>377</v>
       </c>
@@ -13462,8 +13697,12 @@
       <c r="BH56">
         <v>62.285658536585373</v>
       </c>
+      <c r="BI56" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>378</v>
       </c>
@@ -13492,8 +13731,12 @@
       <c r="AU57">
         <v>76.597560975609767</v>
       </c>
+      <c r="BI57" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>379</v>
       </c>
@@ -13675,8 +13918,12 @@
       <c r="BH58">
         <v>81.099999999999994</v>
       </c>
+      <c r="BI58" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>380</v>
       </c>
@@ -13858,8 +14105,12 @@
       <c r="BH59">
         <v>73.676682926829272</v>
       </c>
+      <c r="BI59" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>381</v>
       </c>
@@ -14041,8 +14292,12 @@
       <c r="BH60">
         <v>75.042536585365852</v>
       </c>
+      <c r="BI60" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>382</v>
       </c>
@@ -14223,8 +14478,12 @@
       <c r="BH61">
         <v>74.174157071521876</v>
       </c>
+      <c r="BI61" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>383</v>
       </c>
@@ -14405,8 +14664,12 @@
       <c r="BH62">
         <v>69.320758989395415</v>
       </c>
+      <c r="BI62" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>384</v>
       </c>
@@ -14587,8 +14850,12 @@
       <c r="BH63">
         <v>75.105969992432094</v>
       </c>
+      <c r="BI63" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>385</v>
       </c>
@@ -14769,8 +15036,12 @@
       <c r="BH64">
         <v>72.213420346021351</v>
       </c>
+      <c r="BI64" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>386</v>
       </c>
@@ -14951,8 +15222,12 @@
       <c r="BH65">
         <v>77.278912618572562</v>
       </c>
+      <c r="BI65" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>387</v>
       </c>
@@ -15134,8 +15409,12 @@
       <c r="BH66">
         <v>76.102926829268299</v>
       </c>
+      <c r="BI66" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>388</v>
       </c>
@@ -15317,8 +15596,12 @@
       <c r="BH67">
         <v>71.316951219512205</v>
       </c>
+      <c r="BI67" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>389</v>
       </c>
@@ -15499,8 +15782,12 @@
       <c r="BH68">
         <v>82.070276041095042</v>
       </c>
+      <c r="BI68" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>390</v>
       </c>
@@ -15682,8 +15969,12 @@
       <c r="BH69">
         <v>64.100902439024409</v>
       </c>
+      <c r="BI69" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>391</v>
       </c>
@@ -15865,8 +16156,12 @@
       <c r="BH70">
         <v>83.380487804878058</v>
       </c>
+      <c r="BI70" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>392</v>
       </c>
@@ -16048,8 +16343,12 @@
       <c r="BH71">
         <v>77.131707317073179</v>
       </c>
+      <c r="BI71" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>393</v>
       </c>
@@ -16231,8 +16530,12 @@
       <c r="BH72">
         <v>64.578048780487805</v>
       </c>
+      <c r="BI72" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>394</v>
       </c>
@@ -16413,8 +16716,12 @@
       <c r="BH73">
         <v>81.126429056045893</v>
       </c>
+      <c r="BI73" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>395</v>
       </c>
@@ -16595,8 +16902,12 @@
       <c r="BH74">
         <v>61.441762929143337</v>
       </c>
+      <c r="BI74" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>396</v>
       </c>
@@ -16778,8 +17089,12 @@
       <c r="BH75">
         <v>81.385365853658527</v>
       </c>
+      <c r="BI75" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>397</v>
       </c>
@@ -16961,8 +17276,12 @@
       <c r="BH76">
         <v>70.256268292682932</v>
       </c>
+      <c r="BI76" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>398</v>
       </c>
@@ -17144,8 +17463,12 @@
       <c r="BH77">
         <v>82.670731707317088</v>
       </c>
+      <c r="BI77" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>399</v>
       </c>
@@ -17255,8 +17578,12 @@
       <c r="BH78">
         <v>81.634146341463435</v>
       </c>
+      <c r="BI78" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>400</v>
       </c>
@@ -17438,8 +17765,12 @@
       <c r="BH79">
         <v>69.234243902439033</v>
       </c>
+      <c r="BI79" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>401</v>
       </c>
@@ -17621,8 +17952,12 @@
       <c r="BH80">
         <v>64.890341463414643</v>
       </c>
+      <c r="BI80" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>402</v>
       </c>
@@ -17804,8 +18139,12 @@
       <c r="BH81">
         <v>81.604878048780506</v>
       </c>
+      <c r="BI81" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>403</v>
       </c>
@@ -17987,8 +18326,12 @@
       <c r="BH82">
         <v>74.817414634146346</v>
       </c>
+      <c r="BI82" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>404</v>
       </c>
@@ -18170,8 +18513,12 @@
       <c r="BH83">
         <v>61.491731707317079</v>
       </c>
+      <c r="BI83" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>405</v>
       </c>
@@ -18185,8 +18532,12 @@
         <f>IF(MATCH(B84,'[1]Metadata - Countries'!A84),'[1]Metadata - Countries'!C84,"NA")</f>
         <v>High income</v>
       </c>
+      <c r="BI84" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="85" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>406</v>
       </c>
@@ -18368,8 +18719,12 @@
       <c r="BH85">
         <v>59.193439024390251</v>
       </c>
+      <c r="BI85" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="86" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>407</v>
       </c>
@@ -18551,8 +18906,12 @@
       <c r="BH86">
         <v>60.467682926829269</v>
       </c>
+      <c r="BI86" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="87" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>408</v>
       </c>
@@ -18734,8 +19093,12 @@
       <c r="BH87">
         <v>55.467317073170733</v>
       </c>
+      <c r="BI87" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="88" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>409</v>
       </c>
@@ -18917,8 +19280,12 @@
       <c r="BH88">
         <v>57.963414634146346</v>
       </c>
+      <c r="BI88" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="89" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>410</v>
       </c>
@@ -19100,8 +19467,12 @@
       <c r="BH89">
         <v>81.587804878048786</v>
       </c>
+      <c r="BI89" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="90" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>411</v>
       </c>
@@ -19283,8 +19654,12 @@
       <c r="BH90">
         <v>73.52300000000001</v>
       </c>
+      <c r="BI90" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="91" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>412</v>
       </c>
@@ -19406,8 +19781,12 @@
       <c r="BF91">
         <v>71.830487804878061</v>
       </c>
+      <c r="BI91" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="92" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>413</v>
       </c>
@@ -19589,8 +19968,12 @@
       <c r="BH92">
         <v>71.956487804878066</v>
       </c>
+      <c r="BI92" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="93" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>414</v>
       </c>
@@ -19772,8 +20155,12 @@
       <c r="BH93">
         <v>79.379000000000005</v>
       </c>
+      <c r="BI93" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="94" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -19955,8 +20342,12 @@
       <c r="BH94">
         <v>66.507512195121947</v>
       </c>
+      <c r="BI94" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="95" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>416</v>
       </c>
@@ -20137,8 +20528,12 @@
       <c r="BH95">
         <v>80.779647345563959</v>
       </c>
+      <c r="BI95" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="96" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>417</v>
       </c>
@@ -20320,8 +20715,12 @@
       <c r="BH96">
         <v>84.278048780487822</v>
       </c>
+      <c r="BI96" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="97" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>418</v>
       </c>
@@ -20503,8 +20902,12 @@
       <c r="BH97">
         <v>73.33312195121951</v>
       </c>
+      <c r="BI97" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="98" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>419</v>
       </c>
@@ -20685,8 +21088,12 @@
       <c r="BH98">
         <v>61.215176656007536</v>
       </c>
+      <c r="BI98" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="99" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>420</v>
       </c>
@@ -20868,8 +21275,12 @@
       <c r="BH99">
         <v>77.27560975609758</v>
       </c>
+      <c r="BI99" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="100" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>421</v>
       </c>
@@ -21051,8 +21462,12 @@
       <c r="BH100">
         <v>63.073756097560981</v>
       </c>
+      <c r="BI100" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="101" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>422</v>
       </c>
@@ -21234,8 +21649,12 @@
       <c r="BH101">
         <v>75.960975609756119</v>
       </c>
+      <c r="BI101" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="102" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>423</v>
       </c>
@@ -21416,8 +21835,12 @@
       <c r="BH102">
         <v>72.354967063966001</v>
       </c>
+      <c r="BI102" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="103" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>424</v>
       </c>
@@ -21598,8 +22021,12 @@
       <c r="BH103">
         <v>69.985403966067139</v>
       </c>
+      <c r="BI103" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="104" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>425</v>
       </c>
@@ -21780,8 +22207,12 @@
       <c r="BH104">
         <v>62.823010209751899</v>
       </c>
+      <c r="BI104" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="105" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>426</v>
       </c>
@@ -21962,8 +22393,12 @@
       <c r="BH105">
         <v>60.663007247808217</v>
       </c>
+      <c r="BI105" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="106" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>427</v>
       </c>
@@ -22145,8 +22580,12 @@
       <c r="BH106">
         <v>69.071682926829268</v>
       </c>
+      <c r="BI106" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="107" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>428</v>
       </c>
@@ -22327,8 +22766,12 @@
       <c r="BH107">
         <v>63.891232926636356</v>
       </c>
+      <c r="BI107" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="108" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>429</v>
       </c>
@@ -22348,8 +22791,12 @@
       <c r="AU108">
         <v>77.965853658536588</v>
       </c>
+      <c r="BI108" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="109" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>430</v>
       </c>
@@ -22531,8 +22978,12 @@
       <c r="BH109">
         <v>68.348560975609772</v>
       </c>
+      <c r="BI109" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="110" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>431</v>
       </c>
@@ -22714,8 +23165,12 @@
       <c r="BH110">
         <v>81.502439024390242</v>
       </c>
+      <c r="BI110" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="111" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>432</v>
       </c>
@@ -22897,8 +23352,12 @@
       <c r="BH111">
         <v>75.591341463414651</v>
       </c>
+      <c r="BI111" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="112" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>433</v>
       </c>
@@ -23080,8 +23539,12 @@
       <c r="BH112">
         <v>69.590268292682936</v>
       </c>
+      <c r="BI112" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="113" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>434</v>
       </c>
@@ -23263,8 +23726,12 @@
       <c r="BH113">
         <v>82.86097560975611</v>
       </c>
+      <c r="BI113" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="114" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>435</v>
       </c>
@@ -23434,8 +23901,12 @@
       <c r="BH114">
         <v>82.051219512195118</v>
       </c>
+      <c r="BI114" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="115" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>436</v>
       </c>
@@ -23617,8 +24088,12 @@
       <c r="BH115">
         <v>83.490243902439033</v>
       </c>
+      <c r="BI115" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="116" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>437</v>
       </c>
@@ -23800,8 +24275,12 @@
       <c r="BH116">
         <v>75.79817073170733</v>
       </c>
+      <c r="BI116" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="117" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>438</v>
       </c>
@@ -23983,8 +24462,12 @@
       <c r="BH117">
         <v>74.203341463414645</v>
       </c>
+      <c r="BI117" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="118" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>439</v>
       </c>
@@ -24166,8 +24649,12 @@
       <c r="BH118">
         <v>83.84365853658538</v>
       </c>
+      <c r="BI118" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="119" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>440</v>
       </c>
@@ -24349,8 +24836,12 @@
       <c r="BH119">
         <v>72</v>
       </c>
+      <c r="BI119" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="120" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>441</v>
       </c>
@@ -24532,8 +25023,12 @@
       <c r="BH120">
         <v>62.133731707317075</v>
       </c>
+      <c r="BI120" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="121" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>442</v>
       </c>
@@ -24715,8 +25210,12 @@
       <c r="BH121">
         <v>70.651219512195127</v>
       </c>
+      <c r="BI121" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="122" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>443</v>
       </c>
@@ -24898,8 +25397,12 @@
       <c r="BH122">
         <v>68.656146341463426</v>
       </c>
+      <c r="BI122" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="123" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>444</v>
       </c>
@@ -25081,8 +25584,12 @@
       <c r="BH123">
         <v>66.14785365853659</v>
       </c>
+      <c r="BI123" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="124" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>445</v>
       </c>
@@ -25111,8 +25618,12 @@
       <c r="AU124">
         <v>71.336585365853665</v>
       </c>
+      <c r="BI124" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="125" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>446</v>
       </c>
@@ -25294,8 +25805,12 @@
       <c r="BH125">
         <v>82.155853658536586</v>
       </c>
+      <c r="BI125" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="126" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>447</v>
       </c>
@@ -25477,8 +25992,12 @@
       <c r="BH126">
         <v>74.697902439024389</v>
       </c>
+      <c r="BI126" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="127" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>448</v>
       </c>
@@ -25659,8 +26178,12 @@
       <c r="BH127">
         <v>74.94118074258553</v>
       </c>
+      <c r="BI127" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="128" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>449</v>
       </c>
@@ -25842,8 +26365,12 @@
       <c r="BH128">
         <v>66.539878048780494</v>
       </c>
+      <c r="BI128" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="129" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>450</v>
       </c>
@@ -26025,8 +26552,12 @@
       <c r="BH129">
         <v>79.628609756097575</v>
       </c>
+      <c r="BI129" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="130" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>451</v>
       </c>
@@ -26208,8 +26739,12 @@
       <c r="BH130">
         <v>61.160951219512206</v>
       </c>
+      <c r="BI130" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="131" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>452</v>
       </c>
@@ -26391,8 +26926,12 @@
       <c r="BH131">
         <v>71.826317073170728</v>
       </c>
+      <c r="BI131" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="132" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>453</v>
       </c>
@@ -26574,8 +27113,12 @@
       <c r="BH132">
         <v>75.184512195121968</v>
       </c>
+      <c r="BI132" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="133" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>454</v>
       </c>
@@ -26756,8 +27299,12 @@
       <c r="BH133">
         <v>75.163963091957982</v>
       </c>
+      <c r="BI133" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="134" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>455</v>
       </c>
@@ -26938,8 +27485,12 @@
       <c r="BH134">
         <v>63.527685619254719</v>
       </c>
+      <c r="BI134" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="135" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>456</v>
       </c>
@@ -27120,8 +27671,12 @@
       <c r="BH135">
         <v>61.730949892853239</v>
       </c>
+      <c r="BI135" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="136" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>457</v>
       </c>
@@ -27201,8 +27756,12 @@
       <c r="BH136">
         <v>82.073170731707322</v>
       </c>
+      <c r="BI136" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="137" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>458</v>
       </c>
@@ -27384,8 +27943,12 @@
       <c r="BH137">
         <v>74.953195121951225</v>
       </c>
+      <c r="BI137" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="138" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>459</v>
       </c>
@@ -27566,8 +28129,12 @@
       <c r="BH138">
         <v>67.417409292660665</v>
       </c>
+      <c r="BI138" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="139" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>460</v>
       </c>
@@ -27748,8 +28315,12 @@
       <c r="BH139">
         <v>69.912995298777957</v>
       </c>
+      <c r="BI139" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="140" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>461</v>
       </c>
@@ -27931,8 +28502,12 @@
       <c r="BH140">
         <v>49.961219512195129</v>
       </c>
+      <c r="BI140" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="141" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>462</v>
       </c>
@@ -28113,8 +28688,12 @@
       <c r="BH141">
         <v>75.362786422233668</v>
       </c>
+      <c r="BI141" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="142" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>463</v>
       </c>
@@ -28296,8 +28875,12 @@
       <c r="BH142">
         <v>75.119512195121956</v>
       </c>
+      <c r="BI142" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="143" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>464</v>
       </c>
@@ -28479,8 +29062,12 @@
       <c r="BH143">
         <v>82.229268292682931</v>
       </c>
+      <c r="BI143" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="144" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>465</v>
       </c>
@@ -28662,8 +29249,12 @@
       <c r="BH144">
         <v>74.12439024390244</v>
       </c>
+      <c r="BI144" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="145" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>466</v>
       </c>
@@ -28845,8 +29436,12 @@
       <c r="BH145">
         <v>80.766073170731715</v>
       </c>
+      <c r="BI145" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="146" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>467</v>
       </c>
@@ -28962,8 +29557,12 @@
       <c r="BH146">
         <v>79.470731707317071</v>
       </c>
+      <c r="BI146" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="147" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>468</v>
       </c>
@@ -29145,8 +29744,12 @@
       <c r="BH147">
         <v>74.289317073170736</v>
       </c>
+      <c r="BI147" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="148" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>469</v>
       </c>
@@ -29160,8 +29763,12 @@
         <f>IF(MATCH(B148,'[1]Metadata - Countries'!A148),'[1]Metadata - Countries'!C148,"NA")</f>
         <v>High income</v>
       </c>
+      <c r="BI148" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="149" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>470</v>
       </c>
@@ -29343,8 +29950,12 @@
       <c r="BH149">
         <v>71.626439024390251</v>
       </c>
+      <c r="BI149" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="150" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>471</v>
       </c>
@@ -29526,8 +30137,12 @@
       <c r="BH150">
         <v>65.482780487804902</v>
       </c>
+      <c r="BI150" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="151" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>472</v>
       </c>
@@ -29709,8 +30324,12 @@
       <c r="BH151">
         <v>76.979000000000013</v>
       </c>
+      <c r="BI151" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="152" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>473</v>
       </c>
@@ -29891,8 +30510,12 @@
       <c r="BH152">
         <v>73.05362784619706</v>
       </c>
+      <c r="BI152" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="153" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>474</v>
       </c>
@@ -30074,8 +30697,12 @@
       <c r="BH153">
         <v>76.920682926829286</v>
       </c>
+      <c r="BI153" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="154" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>475</v>
       </c>
@@ -30098,8 +30725,12 @@
       <c r="AS154">
         <v>65.239024390243912</v>
       </c>
+      <c r="BI154" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="155" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>476</v>
       </c>
@@ -30280,8 +30911,12 @@
       <c r="BH155">
         <v>70.86823022266897</v>
       </c>
+      <c r="BI155" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="156" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>477</v>
       </c>
@@ -30463,8 +31098,12 @@
       <c r="BH156">
         <v>75.495341463414633</v>
       </c>
+      <c r="BI156" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="157" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>478</v>
       </c>
@@ -30646,8 +31285,12 @@
       <c r="BH157">
         <v>58.457219512195124</v>
       </c>
+      <c r="BI157" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="158" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>479</v>
       </c>
@@ -30829,8 +31472,12 @@
       <c r="BH158">
         <v>81.94634146341464</v>
       </c>
+      <c r="BI158" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="159" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>480</v>
       </c>
@@ -31012,8 +31659,12 @@
       <c r="BH159">
         <v>66.042073170731726</v>
       </c>
+      <c r="BI159" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="160" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>481</v>
       </c>
@@ -31194,8 +31845,12 @@
       <c r="BH160">
         <v>72.483494047347918</v>
       </c>
+      <c r="BI160" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="161" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>482</v>
       </c>
@@ -31377,8 +32032,12 @@
       <c r="BH161">
         <v>76.337707317073182</v>
       </c>
+      <c r="BI161" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="162" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>483</v>
       </c>
@@ -31560,8 +32219,12 @@
       <c r="BH162">
         <v>69.82126829268293</v>
       </c>
+      <c r="BI162" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="163" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>484</v>
       </c>
@@ -31575,8 +32238,12 @@
         <f>IF(MATCH(B163,'[1]Metadata - Countries'!A163),'[1]Metadata - Countries'!C163,"NA")</f>
         <v>High income</v>
       </c>
+      <c r="BI163" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="164" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>485</v>
       </c>
@@ -31758,8 +32425,12 @@
       <c r="BH164">
         <v>55.371243902439033</v>
       </c>
+      <c r="BI164" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="165" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>486</v>
       </c>
@@ -31941,8 +32612,12 @@
       <c r="BH165">
         <v>63.202829268292689</v>
       </c>
+      <c r="BI165" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="166" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>487</v>
       </c>
@@ -32124,8 +32799,12 @@
       <c r="BH166">
         <v>74.353170731707323</v>
       </c>
+      <c r="BI166" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="167" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>488</v>
       </c>
@@ -32307,8 +32986,12 @@
       <c r="BH167">
         <v>63.796853658536584</v>
       </c>
+      <c r="BI167" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="168" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>489</v>
       </c>
@@ -32490,8 +33173,12 @@
       <c r="BH168">
         <v>74.875170731707328</v>
       </c>
+      <c r="BI168" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="169" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>490</v>
       </c>
@@ -32672,8 +33359,12 @@
       <c r="BH169">
         <v>79.083090535690062</v>
       </c>
+      <c r="BI169" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="170" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>491</v>
       </c>
@@ -32855,8 +33546,12 @@
       <c r="BH170">
         <v>64.915439024390267</v>
       </c>
+      <c r="BI170" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="171" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>492</v>
       </c>
@@ -33038,8 +33733,12 @@
       <c r="BH171">
         <v>77.773170731707324</v>
       </c>
+      <c r="BI171" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="172" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>493</v>
       </c>
@@ -33221,8 +33920,12 @@
       <c r="BH172">
         <v>61.969024390243909</v>
       </c>
+      <c r="BI172" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="173" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>494</v>
       </c>
@@ -33404,8 +34107,12 @@
       <c r="BH173">
         <v>53.048878048780495</v>
       </c>
+      <c r="BI173" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="174" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>495</v>
       </c>
@@ -33587,8 +34294,12 @@
       <c r="BH174">
         <v>75.098121951219525</v>
       </c>
+      <c r="BI174" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="175" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>496</v>
       </c>
@@ -33770,8 +34481,12 @@
       <c r="BH175">
         <v>81.707317073170742</v>
       </c>
+      <c r="BI175" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="176" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>497</v>
       </c>
@@ -33953,8 +34668,12 @@
       <c r="BH176">
         <v>82.1</v>
       </c>
+      <c r="BI176" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="177" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>498</v>
       </c>
@@ -34136,8 +34855,12 @@
       <c r="BH177">
         <v>69.973341463414656</v>
       </c>
+      <c r="BI177" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="178" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>499</v>
       </c>
@@ -34151,8 +34874,12 @@
         <f>IF(MATCH(B178,'[1]Metadata - Countries'!A178),'[1]Metadata - Countries'!C178,"NA")</f>
         <v>Upper middle income</v>
       </c>
+      <c r="BI178" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="179" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>500</v>
       </c>
@@ -34334,8 +35061,12 @@
       <c r="BH179">
         <v>81.456829268292694</v>
       </c>
+      <c r="BI179" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="180" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>501</v>
       </c>
@@ -34516,8 +35247,12 @@
       <c r="BH180">
         <v>80.324809134217787</v>
       </c>
+      <c r="BI180" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="181" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>502</v>
       </c>
@@ -34699,8 +35434,12 @@
       <c r="BH181">
         <v>77.324195121951206</v>
       </c>
+      <c r="BI181" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="182" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>503</v>
       </c>
@@ -34881,8 +35620,12 @@
       <c r="BH182">
         <v>66.614556687196057</v>
       </c>
+      <c r="BI182" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="183" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>504</v>
       </c>
@@ -35064,8 +35807,12 @@
       <c r="BH183">
         <v>66.376975609756101</v>
       </c>
+      <c r="BI183" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="184" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>505</v>
       </c>
@@ -35247,8 +35994,12 @@
       <c r="BH184">
         <v>77.767292682926836</v>
       </c>
+      <c r="BI184" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="185" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>506</v>
       </c>
@@ -35430,8 +36181,12 @@
       <c r="BH185">
         <v>74.780731707317074</v>
       </c>
+      <c r="BI185" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="186" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>507</v>
       </c>
@@ -35613,8 +36368,12 @@
       <c r="BH186">
         <v>68.406756097560987</v>
       </c>
+      <c r="BI186" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="187" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>508</v>
       </c>
@@ -35640,8 +36399,12 @@
       <c r="AX187">
         <v>69.129268292682923</v>
       </c>
+      <c r="BI187" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="188" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>509</v>
       </c>
@@ -35823,8 +36586,12 @@
       <c r="BH188">
         <v>62.776682926829281</v>
       </c>
+      <c r="BI188" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="189" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>510</v>
       </c>
@@ -36006,8 +36773,12 @@
       <c r="BH189">
         <v>78.204878048780486</v>
       </c>
+      <c r="BI189" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="190" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>511</v>
       </c>
@@ -36188,8 +36959,12 @@
       <c r="BH190">
         <v>58.748667345975903</v>
       </c>
+      <c r="BI190" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="191" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>512</v>
       </c>
@@ -36371,8 +37146,12 @@
       <c r="BH191">
         <v>79.572317073170751</v>
       </c>
+      <c r="BI191" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="192" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>513</v>
       </c>
@@ -36554,8 +37333,12 @@
       <c r="BH192">
         <v>70.337926829268312</v>
       </c>
+      <c r="BI192" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="193" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>514</v>
       </c>
@@ -36737,8 +37520,12 @@
       <c r="BH193">
         <v>81.521951219512204</v>
       </c>
+      <c r="BI193" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="194" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>515</v>
       </c>
@@ -36920,8 +37707,12 @@
       <c r="BH194">
         <v>73.025634146341474</v>
       </c>
+      <c r="BI194" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="195" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>516</v>
       </c>
@@ -37013,8 +37804,12 @@
       <c r="BH195">
         <v>73.07419512195122</v>
       </c>
+      <c r="BI195" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="196" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>517</v>
       </c>
@@ -37195,8 +37990,12 @@
       <c r="BH196">
         <v>70.106168559535988</v>
       </c>
+      <c r="BI196" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="197" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>518</v>
       </c>
@@ -37377,8 +38176,12 @@
       <c r="BH197">
         <v>80.645063958079817</v>
       </c>
+      <c r="BI197" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="198" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>519</v>
       </c>
@@ -37560,8 +38363,12 @@
       <c r="BH198">
         <v>76.752414634146348</v>
       </c>
+      <c r="BI198" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="199" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>520</v>
       </c>
@@ -37743,8 +38550,12 @@
       <c r="BH199">
         <v>78.762585365853667</v>
       </c>
+      <c r="BI199" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="200" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>521</v>
       </c>
@@ -37926,8 +38737,12 @@
       <c r="BH200">
         <v>74.960975609756119</v>
       </c>
+      <c r="BI200" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="201" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>522</v>
       </c>
@@ -38109,8 +38924,12 @@
       <c r="BH201">
         <v>70.908536585365866</v>
       </c>
+      <c r="BI201" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="202" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>523</v>
       </c>
@@ -38292,8 +39111,12 @@
       <c r="BH202">
         <v>64.524536585365865</v>
       </c>
+      <c r="BI202" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="203" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>524</v>
       </c>
@@ -38474,8 +39297,12 @@
       <c r="BH203">
         <v>68.433244695148829</v>
       </c>
+      <c r="BI203" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="204" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>525</v>
       </c>
@@ -38657,8 +39484,12 @@
       <c r="BH204">
         <v>74.493341463414637</v>
       </c>
+      <c r="BI204" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="205" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>526</v>
       </c>
@@ -38840,8 +39671,12 @@
       <c r="BH205">
         <v>63.71073170731708</v>
       </c>
+      <c r="BI205" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="206" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>527</v>
       </c>
@@ -39023,8 +39858,12 @@
       <c r="BH206">
         <v>66.80441463414634</v>
       </c>
+      <c r="BI206" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="207" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>528</v>
       </c>
@@ -39206,8 +40045,12 @@
       <c r="BH207">
         <v>82.595121951219525</v>
       </c>
+      <c r="BI207" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="208" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>529</v>
       </c>
@@ -39389,8 +40232,12 @@
       <c r="BH208">
         <v>68.146243902439025</v>
       </c>
+      <c r="BI208" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="209" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>530</v>
       </c>
@@ -39572,8 +40419,12 @@
       <c r="BH209">
         <v>51.308170731707321</v>
       </c>
+      <c r="BI209" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="210" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>531</v>
       </c>
@@ -39755,8 +40606,12 @@
       <c r="BH210">
         <v>73.001097560975623</v>
       </c>
+      <c r="BI210" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="211" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>532</v>
       </c>
@@ -39818,8 +40673,12 @@
       <c r="BD211">
         <v>83.323215077605312</v>
       </c>
+      <c r="BI211" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="212" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>533</v>
       </c>
@@ -40001,8 +40860,12 @@
       <c r="BH212">
         <v>55.685585365853662</v>
       </c>
+      <c r="BI212" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="213" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>534</v>
       </c>
@@ -40070,8 +40933,12 @@
       <c r="BH213">
         <v>75.487804878048792</v>
       </c>
+      <c r="BI213" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="214" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>535</v>
       </c>
@@ -40252,8 +41119,12 @@
       <c r="BH214">
         <v>58.973296380366698</v>
       </c>
+      <c r="BI214" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="215" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>536</v>
       </c>
@@ -40435,8 +41306,12 @@
       <c r="BH215">
         <v>56.111512195121961</v>
       </c>
+      <c r="BI215" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="216" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>537</v>
       </c>
@@ -40617,8 +41492,12 @@
       <c r="BH216">
         <v>58.974620781034638</v>
       </c>
+      <c r="BI216" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="217" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>538</v>
       </c>
@@ -40799,8 +41678,12 @@
       <c r="BH217">
         <v>67.992584291242736</v>
       </c>
+      <c r="BI217" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="218" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>539</v>
       </c>
@@ -40982,8 +41865,12 @@
       <c r="BH218">
         <v>66.513707317073184</v>
       </c>
+      <c r="BI218" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="219" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>540</v>
       </c>
@@ -41165,8 +42052,12 @@
       <c r="BH219">
         <v>71.294170731707325</v>
       </c>
+      <c r="BI219" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="220" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>541</v>
       </c>
@@ -41348,8 +42239,12 @@
       <c r="BH220">
         <v>77.21219512195124</v>
       </c>
+      <c r="BI220" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="221" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>542</v>
       </c>
@@ -41531,8 +42426,12 @@
       <c r="BH221">
         <v>81.078048780487805</v>
       </c>
+      <c r="BI221" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="222" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>543</v>
       </c>
@@ -41714,8 +42613,12 @@
       <c r="BH222">
         <v>82.551219512195118</v>
       </c>
+      <c r="BI222" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="223" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>544</v>
       </c>
@@ -41897,8 +42800,12 @@
       <c r="BH223">
         <v>48.873951219512193</v>
       </c>
+      <c r="BI223" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="224" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>545</v>
       </c>
@@ -41924,8 +42831,12 @@
       <c r="BE224">
         <v>73.053658536585374</v>
       </c>
+      <c r="BI224" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="225" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>546</v>
       </c>
@@ -41993,8 +42904,12 @@
       <c r="BH225">
         <v>73.229268292682931</v>
       </c>
+      <c r="BI225" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="226" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>547</v>
       </c>
@@ -42176,8 +43091,12 @@
       <c r="BH226">
         <v>70.089317073170733</v>
       </c>
+      <c r="BI226" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="227" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>548</v>
       </c>
@@ -42191,8 +43110,12 @@
         <f>IF(MATCH(B227,'[1]Metadata - Countries'!A227),'[1]Metadata - Countries'!C227,"NA")</f>
         <v>High income</v>
       </c>
+      <c r="BI227" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="228" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>549</v>
       </c>
@@ -42374,8 +43297,12 @@
       <c r="BH228">
         <v>51.873317073170739</v>
       </c>
+      <c r="BI228" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="229" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>550</v>
       </c>
@@ -42556,8 +43483,12 @@
       <c r="BH229">
         <v>74.22230872278169</v>
       </c>
+      <c r="BI229" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="230" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>551</v>
       </c>
@@ -42738,8 +43669,12 @@
       <c r="BH230">
         <v>72.715877298064768</v>
       </c>
+      <c r="BI230" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="231" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>552</v>
       </c>
@@ -42921,8 +43856,12 @@
       <c r="BH231">
         <v>60.120756097560985</v>
       </c>
+      <c r="BI231" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="232" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>553</v>
       </c>
@@ -43104,8 +44043,12 @@
       <c r="BH232">
         <v>74.601195121951235</v>
       </c>
+      <c r="BI232" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="233" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>554</v>
       </c>
@@ -43287,8 +44230,12 @@
       <c r="BH233">
         <v>69.768439024390261</v>
       </c>
+      <c r="BI233" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="234" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>555</v>
       </c>
@@ -43470,8 +44417,12 @@
       <c r="BH234">
         <v>65.736439024390251</v>
       </c>
+      <c r="BI234" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="235" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>556</v>
       </c>
@@ -43652,8 +44603,12 @@
       <c r="BH235">
         <v>75.055892361569434</v>
       </c>
+      <c r="BI235" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="236" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>557</v>
       </c>
@@ -43835,8 +44790,12 @@
       <c r="BH236">
         <v>68.526414634146349</v>
       </c>
+      <c r="BI236" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="237" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>558</v>
       </c>
@@ -44017,8 +44976,12 @@
       <c r="BH237">
         <v>72.476298539990935</v>
       </c>
+      <c r="BI237" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="238" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>559</v>
       </c>
@@ -44200,8 +45163,12 @@
       <c r="BH238">
         <v>72.944048780487819</v>
       </c>
+      <c r="BI238" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="239" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>560</v>
       </c>
@@ -44382,8 +45349,12 @@
       <c r="BH239">
         <v>68.433244695148829</v>
       </c>
+      <c r="BI239" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="240" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>561</v>
       </c>
@@ -44564,8 +45535,12 @@
       <c r="BH240">
         <v>58.974620781034638</v>
       </c>
+      <c r="BI240" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="241" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>562</v>
       </c>
@@ -44747,8 +45722,12 @@
       <c r="BH241">
         <v>70.557707317073181</v>
       </c>
+      <c r="BI241" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="242" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>563</v>
       </c>
@@ -44930,8 +45909,12 @@
       <c r="BH242">
         <v>74.975975609756105</v>
       </c>
+      <c r="BI242" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="243" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>564</v>
       </c>
@@ -45113,8 +46096,12 @@
       <c r="BH243">
         <v>75.426219512195146</v>
       </c>
+      <c r="BI243" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="244" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>565</v>
       </c>
@@ -45128,8 +46115,12 @@
         <f>IF(MATCH(B244,'[1]Metadata - Countries'!A244),'[1]Metadata - Countries'!C244,"NA")</f>
         <v>Upper middle income</v>
       </c>
+      <c r="BI244" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="245" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>566</v>
       </c>
@@ -45311,8 +46302,12 @@
       <c r="BH245">
         <v>65.487487804878057</v>
       </c>
+      <c r="BI245" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="246" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>567</v>
       </c>
@@ -45494,8 +46489,12 @@
       <c r="BH246">
         <v>59.179073170731712</v>
       </c>
+      <c r="BI246" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="247" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>568</v>
       </c>
@@ -45677,8 +46676,12 @@
       <c r="BH247">
         <v>71.189512195121964</v>
       </c>
+      <c r="BI247" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="248" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>569</v>
       </c>
@@ -45859,8 +46862,12 @@
       <c r="BH248">
         <v>74.871425705745935</v>
       </c>
+      <c r="BI248" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="249" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>570</v>
       </c>
@@ -46042,8 +47049,12 @@
       <c r="BH249">
         <v>77.138219512195136</v>
       </c>
+      <c r="BI249" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="250" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>571</v>
       </c>
@@ -46225,8 +47236,12 @@
       <c r="BH250">
         <v>78.741463414634154</v>
       </c>
+      <c r="BI250" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="251" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>572</v>
       </c>
@@ -46408,8 +47423,12 @@
       <c r="BH251">
         <v>68.453073170731713</v>
       </c>
+      <c r="BI251" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="252" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>573</v>
       </c>
@@ -46591,8 +47610,12 @@
       <c r="BH252">
         <v>73.052365853658543</v>
       </c>
+      <c r="BI252" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="253" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>574</v>
       </c>
@@ -46774,8 +47797,12 @@
       <c r="BH253">
         <v>74.409609756097566</v>
       </c>
+      <c r="BI253" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="254" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>575</v>
       </c>
@@ -46789,8 +47816,12 @@
         <f>IF(MATCH(B254,'[1]Metadata - Countries'!A254),'[1]Metadata - Countries'!C254,"NA")</f>
         <v>High income</v>
       </c>
+      <c r="BI254" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="255" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>576</v>
       </c>
@@ -46972,8 +48003,12 @@
       <c r="BH255">
         <v>79.873170731707333</v>
       </c>
+      <c r="BI255" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="256" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>577</v>
       </c>
@@ -47155,8 +48190,12 @@
       <c r="BH256">
         <v>75.777731707317074</v>
       </c>
+      <c r="BI256" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="257" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>578</v>
       </c>
@@ -47338,8 +48377,12 @@
       <c r="BH257">
         <v>72.157365853658533</v>
       </c>
+      <c r="BI257" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="258" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>579</v>
       </c>
@@ -47520,8 +48563,12 @@
       <c r="BH258">
         <v>71.663960681256412</v>
       </c>
+      <c r="BI258" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="259" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>580</v>
       </c>
@@ -47703,8 +48750,12 @@
       <c r="BH259">
         <v>73.764878048780503</v>
       </c>
+      <c r="BI259" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="260" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>581</v>
       </c>
@@ -47823,8 +48874,12 @@
       <c r="BH260">
         <v>71.346341463414632</v>
       </c>
+      <c r="BI260" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>No</v>
+      </c>
     </row>
-    <row r="261" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>582</v>
       </c>
@@ -48006,8 +49061,12 @@
       <c r="BH261">
         <v>64.031390243902436</v>
       </c>
+      <c r="BI261" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="262" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>583</v>
       </c>
@@ -48189,8 +49248,12 @@
       <c r="BH262">
         <v>57.440902439024399</v>
       </c>
+      <c r="BI262" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="263" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>584</v>
       </c>
@@ -48372,8 +49435,12 @@
       <c r="BH263">
         <v>60.785682926829274</v>
       </c>
+      <c r="BI263" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="264" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>585</v>
       </c>
@@ -48554,6 +49621,10 @@
       </c>
       <c r="BH264">
         <v>59.161073170731719</v>
+      </c>
+      <c r="BI264" t="str">
+        <f>IF(SUM(Table2[[#This Row],[1960]:[2015]])&gt;2500,"Yes","No")</f>
+        <v>Yes</v>
       </c>
     </row>
   </sheetData>
